--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t xml:space="preserve">ExecutionFlag</t>
   </si>
@@ -28,19 +28,25 @@
     <t xml:space="preserve">ModuleName</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FASB</t>
+  </si>
+  <si>
     <t xml:space="preserve">No</t>
   </si>
   <si>
-    <t xml:space="preserve">FASB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Preq</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">MENU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRACTICE</t>
   </si>
 </sst>
 </file>
@@ -143,7 +149,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -161,6 +167,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,7 +254,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -271,29 +281,150 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5"/>
+    </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5"/>
       <c r="C43" s="0" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
       <c r="C44" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
